--- a/data/tehilim-data/41.xlsx
+++ b/data/tehilim-data/41.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="239">
   <si>
     <t>original</t>
   </si>
@@ -22,168 +22,201 @@
     <t>א</t>
   </si>
   <si>
-    <t>לַמְנַצֵּחַ</t>
-  </si>
-  <si>
-    <t>Начальнику хора</t>
-  </si>
-  <si>
-    <t>מִזְמוֹר</t>
-  </si>
-  <si>
-    <t>псалом</t>
-  </si>
-  <si>
-    <t>לְדָוִד</t>
-  </si>
-  <si>
-    <t>Давида</t>
+    <t>למנצח</t>
+  </si>
+  <si>
+    <t>Руководителю.</t>
+  </si>
+  <si>
+    <t>מזמור</t>
+  </si>
+  <si>
+    <t>Песнопение</t>
+  </si>
+  <si>
+    <t>לדוד</t>
+  </si>
+  <si>
+    <t>Давида.</t>
   </si>
   <si>
     <t>ב</t>
   </si>
   <si>
-    <t>אַשְׁרֵי</t>
-  </si>
-  <si>
-    <t>блажен</t>
-  </si>
-  <si>
-    <t>מַשְׂכִּיל</t>
-  </si>
-  <si>
-    <t>разумеющий</t>
-  </si>
-  <si>
-    <t>אֶל־דָּל</t>
-  </si>
-  <si>
-    <t>бедного</t>
-  </si>
-  <si>
-    <t>בְּיוֹם</t>
+    <t>אשרי</t>
+  </si>
+  <si>
+    <t>Блажен,</t>
+  </si>
+  <si>
+    <t>משכיל</t>
+  </si>
+  <si>
+    <t>кто</t>
+  </si>
+  <si>
+    <t>אל</t>
+  </si>
+  <si>
+    <t>помышляет</t>
+  </si>
+  <si>
+    <t>דל</t>
+  </si>
+  <si>
+    <t>о бедном;</t>
+  </si>
+  <si>
+    <t>ביום</t>
   </si>
   <si>
     <t>в день</t>
   </si>
   <si>
-    <t>רָעָה</t>
-  </si>
-  <si>
-    <t>беды</t>
-  </si>
-  <si>
-    <t>יְמַלְּטֵהוּ</t>
-  </si>
-  <si>
-    <t>избавит его</t>
+    <t>רעה</t>
+  </si>
+  <si>
+    <t>бедствия</t>
+  </si>
+  <si>
+    <t>ימלטהו</t>
+  </si>
+  <si>
+    <t>избавит</t>
+  </si>
+  <si>
+    <t>יהוה</t>
+  </si>
+  <si>
+    <t>его Господь</t>
+  </si>
+  <si>
+    <t>ג</t>
+  </si>
+  <si>
+    <t>Господь</t>
+  </si>
+  <si>
+    <t>ישמרהו</t>
+  </si>
+  <si>
+    <t>сохранит его</t>
+  </si>
+  <si>
+    <t>ויחייהו</t>
+  </si>
+  <si>
+    <t>и сбережет</t>
+  </si>
+  <si>
+    <t>יאשר</t>
+  </si>
+  <si>
+    <t>ему жизнь;</t>
+  </si>
+  <si>
+    <t>בארץ</t>
+  </si>
+  <si>
+    <t>блажен он</t>
+  </si>
+  <si>
+    <t>ואל</t>
+  </si>
+  <si>
+    <t>на земле,</t>
+  </si>
+  <si>
+    <t>תתנהו</t>
+  </si>
+  <si>
+    <t>и Ты</t>
+  </si>
+  <si>
+    <t>בנפש</t>
+  </si>
+  <si>
+    <t>не отдашь</t>
+  </si>
+  <si>
+    <t>איביו</t>
+  </si>
+  <si>
+    <t>его на волю</t>
+  </si>
+  <si>
+    <t>ד</t>
+  </si>
+  <si>
+    <t>врагов его</t>
+  </si>
+  <si>
+    <t>יסעדנו</t>
+  </si>
+  <si>
+    <t>укрепит его</t>
+  </si>
+  <si>
+    <t>על</t>
+  </si>
+  <si>
+    <t>на одре</t>
+  </si>
+  <si>
+    <t>ערש</t>
+  </si>
+  <si>
+    <t>болезни его;</t>
+  </si>
+  <si>
+    <t>דוי</t>
+  </si>
+  <si>
+    <t>Ты</t>
+  </si>
+  <si>
+    <t>כל</t>
+  </si>
+  <si>
+    <t>изменишь</t>
+  </si>
+  <si>
+    <t>משכבו</t>
+  </si>
+  <si>
+    <t>все ложе его</t>
+  </si>
+  <si>
+    <t>הפכת</t>
+  </si>
+  <si>
+    <t>в</t>
+  </si>
+  <si>
+    <t>בחליו</t>
+  </si>
+  <si>
+    <t>болезни его.</t>
+  </si>
+  <si>
+    <t>ה</t>
+  </si>
+  <si>
+    <t>אֲנִי</t>
+  </si>
+  <si>
+    <t>я</t>
+  </si>
+  <si>
+    <t>אָמַרְתִּי</t>
+  </si>
+  <si>
+    <t>сказал</t>
   </si>
   <si>
     <t>יְהוָה</t>
   </si>
   <si>
-    <t>Господь</t>
-  </si>
-  <si>
-    <t>ג</t>
-  </si>
-  <si>
-    <t>יִשְׁמְרֵהוּ</t>
-  </si>
-  <si>
-    <t>сохранит его</t>
-  </si>
-  <si>
-    <t>וִיחַיֵּהוּ</t>
-  </si>
-  <si>
-    <t>и оживит его</t>
-  </si>
-  <si>
-    <t>יְאַשֶּׁר</t>
-  </si>
-  <si>
-    <t>будет ублажать его</t>
-  </si>
-  <si>
-    <t>בָּאָרֶץ</t>
-  </si>
-  <si>
-    <t>на земле</t>
-  </si>
-  <si>
-    <t>וְאַל־תִּתְּנֵהוּ</t>
-  </si>
-  <si>
-    <t>и не отдаст его</t>
-  </si>
-  <si>
-    <t>בְּנֶפֶשׁ</t>
-  </si>
-  <si>
-    <t>в руки</t>
-  </si>
-  <si>
-    <t>אֹיְבָיו</t>
-  </si>
-  <si>
-    <t>врагов его</t>
-  </si>
-  <si>
-    <t>ד</t>
-  </si>
-  <si>
-    <t>יִסְעָדֶנּוּ</t>
-  </si>
-  <si>
-    <t>подкрепит его</t>
-  </si>
-  <si>
-    <t>עַל־עֶרֶשׂ</t>
-  </si>
-  <si>
-    <t>на ложе</t>
-  </si>
-  <si>
-    <t>דְּוָי</t>
-  </si>
-  <si>
-    <t>болезни</t>
-  </si>
-  <si>
-    <t>כָּל־מִשְׁכָּבוֹ</t>
-  </si>
-  <si>
-    <t>всю постель его</t>
-  </si>
-  <si>
-    <t>הָפַכְתָּ</t>
-  </si>
-  <si>
-    <t>Ты изменишь</t>
-  </si>
-  <si>
-    <t>בְחָלְיוֹ</t>
-  </si>
-  <si>
-    <t>в болезни его</t>
-  </si>
-  <si>
-    <t>ה</t>
-  </si>
-  <si>
-    <t>אֲנִי</t>
-  </si>
-  <si>
-    <t>я</t>
-  </si>
-  <si>
-    <t>אָמַרְתִּי</t>
-  </si>
-  <si>
-    <t>сказал</t>
-  </si>
-  <si>
     <t>Господи</t>
   </si>
   <si>
@@ -220,361 +253,418 @@
     <t>לָךְ</t>
   </si>
   <si>
-    <t>пред Тобою</t>
+    <t>я пред Тобою</t>
   </si>
   <si>
     <t>ו</t>
   </si>
   <si>
-    <t>אֹיְבַי</t>
-  </si>
-  <si>
-    <t>враги мои</t>
-  </si>
-  <si>
-    <t>יֹאמְרוּ</t>
+    <t>אויבי</t>
+  </si>
+  <si>
+    <t>Враги</t>
+  </si>
+  <si>
+    <t>יאמרו</t>
+  </si>
+  <si>
+    <t>мои</t>
+  </si>
+  <si>
+    <t>רע</t>
   </si>
   <si>
     <t>говорят</t>
   </si>
   <si>
-    <t>רַע</t>
-  </si>
-  <si>
-    <t>зло</t>
-  </si>
-  <si>
-    <t>לִי</t>
+    <t>לי</t>
   </si>
   <si>
     <t>обо мне</t>
   </si>
   <si>
-    <t>מָתַי</t>
-  </si>
-  <si>
-    <t>когда</t>
-  </si>
-  <si>
-    <t>יָמוּת</t>
-  </si>
-  <si>
-    <t>умрет</t>
-  </si>
-  <si>
-    <t>וְאָבַד</t>
-  </si>
-  <si>
-    <t>и погибнет</t>
-  </si>
-  <si>
-    <t>שְׁמוֹ</t>
-  </si>
-  <si>
-    <t>имя его</t>
+    <t>מתי</t>
+  </si>
+  <si>
+    <t>злое:</t>
+  </si>
+  <si>
+    <t>ימות</t>
+  </si>
+  <si>
+    <t>«когда</t>
+  </si>
+  <si>
+    <t>ואבד</t>
+  </si>
+  <si>
+    <t>он умрет</t>
+  </si>
+  <si>
+    <t>שמו</t>
+  </si>
+  <si>
+    <t>и погибнет имя его?»</t>
   </si>
   <si>
     <t>ז</t>
   </si>
   <si>
-    <t>וְאִם־בָּא</t>
-  </si>
-  <si>
-    <t>и если приходит</t>
-  </si>
-  <si>
-    <t>לִרְאוֹת</t>
-  </si>
-  <si>
-    <t>посетить</t>
-  </si>
-  <si>
-    <t>שָׁוְא</t>
-  </si>
-  <si>
-    <t>ложь</t>
-  </si>
-  <si>
-    <t>יְדַבֵּר</t>
+    <t>ואם</t>
+  </si>
+  <si>
+    <t>И</t>
+  </si>
+  <si>
+    <t>בא</t>
+  </si>
+  <si>
+    <t>если</t>
+  </si>
+  <si>
+    <t>לראות</t>
+  </si>
+  <si>
+    <t>один</t>
+  </si>
+  <si>
+    <t>שוא</t>
+  </si>
+  <si>
+    <t>из</t>
+  </si>
+  <si>
+    <t>ידבר</t>
+  </si>
+  <si>
+    <t>них</t>
+  </si>
+  <si>
+    <t>לבו</t>
+  </si>
+  <si>
+    <t>приходит видеть</t>
+  </si>
+  <si>
+    <t>יקבץ</t>
+  </si>
+  <si>
+    <t>меня,</t>
+  </si>
+  <si>
+    <t>און</t>
   </si>
   <si>
     <t>говорит</t>
   </si>
   <si>
-    <t>לִבּוֹ</t>
+    <t>לו</t>
+  </si>
+  <si>
+    <t>ложь;</t>
+  </si>
+  <si>
+    <t>יצא</t>
   </si>
   <si>
     <t>сердце его</t>
   </si>
   <si>
-    <t>יִקְבַּץ־אָוֶן</t>
-  </si>
-  <si>
-    <t>собирает</t>
-  </si>
-  <si>
-    <t>לּוֹ</t>
-  </si>
-  <si>
-    <t>нечестие</t>
-  </si>
-  <si>
-    <t>יֵצֵא</t>
-  </si>
-  <si>
-    <t>себе</t>
-  </si>
-  <si>
-    <t>לַחוּץ</t>
-  </si>
-  <si>
-    <t>выходит</t>
+    <t>לחוץ</t>
+  </si>
+  <si>
+    <t>собирает неправду;</t>
+  </si>
+  <si>
+    <t>и он, выйдя вон,</t>
   </si>
   <si>
     <t>ח</t>
   </si>
   <si>
-    <t>יַחַד</t>
-  </si>
-  <si>
-    <t>вместе</t>
+    <t>рассказывает.</t>
+  </si>
+  <si>
+    <t>יחד</t>
+  </si>
+  <si>
+    <t>Все,</t>
+  </si>
+  <si>
+    <t>עלי</t>
+  </si>
+  <si>
+    <t>ненавидящие</t>
+  </si>
+  <si>
+    <t>יתלחשו</t>
+  </si>
+  <si>
+    <t>шепчутся</t>
+  </si>
+  <si>
+    <t>שונאי</t>
+  </si>
+  <si>
+    <t>между собою</t>
+  </si>
+  <si>
+    <t>против</t>
+  </si>
+  <si>
+    <t>יחשבו</t>
+  </si>
+  <si>
+    <t>меня;</t>
+  </si>
+  <si>
+    <t>замышляют</t>
+  </si>
+  <si>
+    <t>на меня</t>
+  </si>
+  <si>
+    <t>ט</t>
+  </si>
+  <si>
+    <t>зло:</t>
+  </si>
+  <si>
+    <t>דבר</t>
+  </si>
+  <si>
+    <t>«слово</t>
+  </si>
+  <si>
+    <t>בליעל</t>
+  </si>
+  <si>
+    <t>велиала</t>
+  </si>
+  <si>
+    <t>יצוק</t>
+  </si>
+  <si>
+    <t>пришло</t>
+  </si>
+  <si>
+    <t>בו</t>
+  </si>
+  <si>
+    <t>на него;</t>
+  </si>
+  <si>
+    <t>ואשר</t>
+  </si>
+  <si>
+    <t>он</t>
+  </si>
+  <si>
+    <t>שכב</t>
+  </si>
+  <si>
+    <t>слег;</t>
+  </si>
+  <si>
+    <t>לא</t>
+  </si>
+  <si>
+    <t>не</t>
+  </si>
+  <si>
+    <t>יסיף</t>
+  </si>
+  <si>
+    <t>встанет</t>
+  </si>
+  <si>
+    <t>לקום</t>
+  </si>
+  <si>
+    <t>более».</t>
+  </si>
+  <si>
+    <t>י</t>
+  </si>
+  <si>
+    <t>גם</t>
+  </si>
+  <si>
+    <t>Даже</t>
+  </si>
+  <si>
+    <t>איש</t>
+  </si>
+  <si>
+    <t>человек</t>
+  </si>
+  <si>
+    <t>שלומי</t>
+  </si>
+  <si>
+    <t>мирный</t>
+  </si>
+  <si>
+    <t>אשר</t>
+  </si>
+  <si>
+    <t>со</t>
+  </si>
+  <si>
+    <t>בטחתי</t>
+  </si>
+  <si>
+    <t>мною,</t>
+  </si>
+  <si>
+    <t>на которого</t>
+  </si>
+  <si>
+    <t>אוכל</t>
+  </si>
+  <si>
+    <t>לחמי</t>
+  </si>
+  <si>
+    <t>полагался,</t>
+  </si>
+  <si>
+    <t>אֹכֵל</t>
+  </si>
+  <si>
+    <t>ел</t>
+  </si>
+  <si>
+    <t>לַחְמִי</t>
+  </si>
+  <si>
+    <t>хлеб мой</t>
+  </si>
+  <si>
+    <t>הִגְדִּיל</t>
+  </si>
+  <si>
+    <t>поднял</t>
   </si>
   <si>
     <t>עָלַי</t>
   </si>
   <si>
-    <t>יִתְלַחֲשׁוּ</t>
-  </si>
-  <si>
-    <t>шепчут</t>
-  </si>
-  <si>
-    <t>כָּל־שֹׂנְאָי</t>
-  </si>
-  <si>
-    <t>все враги мои</t>
-  </si>
-  <si>
-    <t>יְחַשְּׁבוּ־רָעָה</t>
-  </si>
-  <si>
-    <t>думают зло</t>
-  </si>
-  <si>
-    <t>мне</t>
-  </si>
-  <si>
-    <t>ט</t>
-  </si>
-  <si>
-    <t>דְּבַר־בְּלִיַּעַל</t>
-  </si>
-  <si>
-    <t>слово</t>
-  </si>
-  <si>
-    <t>יָצוּק</t>
-  </si>
-  <si>
-    <t>против</t>
-  </si>
-  <si>
-    <t>בוֹ</t>
+    <t>עָקֵב</t>
+  </si>
+  <si>
+    <t>пяту</t>
+  </si>
+  <si>
+    <t>יא</t>
+  </si>
+  <si>
+    <t>וְאַתָּה</t>
+  </si>
+  <si>
+    <t>а Ты</t>
+  </si>
+  <si>
+    <t>וַהֲקִימֵנִי</t>
+  </si>
+  <si>
+    <t>и подними меня</t>
+  </si>
+  <si>
+    <t>וַאֲשַׁלְּמָה</t>
+  </si>
+  <si>
+    <t>и я воздам</t>
+  </si>
+  <si>
+    <t>לָהֶם</t>
+  </si>
+  <si>
+    <t>им</t>
+  </si>
+  <si>
+    <t>יב</t>
+  </si>
+  <si>
+    <t>בְּזֹאת</t>
+  </si>
+  <si>
+    <t>по этому</t>
+  </si>
+  <si>
+    <t>יָדַעְתִּי</t>
+  </si>
+  <si>
+    <t>узнал</t>
+  </si>
+  <si>
+    <t>что</t>
+  </si>
+  <si>
+    <t>חָפַצְתָּ</t>
+  </si>
+  <si>
+    <t>благоволишь</t>
+  </si>
+  <si>
+    <t>בִי</t>
+  </si>
+  <si>
+    <t>ко мне</t>
+  </si>
+  <si>
+    <t>לֹא</t>
+  </si>
+  <si>
+    <t>יָרִיעַ</t>
+  </si>
+  <si>
+    <t>восторжествует</t>
+  </si>
+  <si>
+    <t>אֹיְבִי</t>
+  </si>
+  <si>
+    <t>враг мой</t>
+  </si>
+  <si>
+    <t>עָלָי</t>
+  </si>
+  <si>
+    <t>надо мною</t>
+  </si>
+  <si>
+    <t>יג</t>
+  </si>
+  <si>
+    <t>וַאֲנִי</t>
+  </si>
+  <si>
+    <t>а я</t>
+  </si>
+  <si>
+    <t>בְּתֻמִּי</t>
+  </si>
+  <si>
+    <t>в своей</t>
+  </si>
+  <si>
+    <t>תָּמַכְתָּ</t>
+  </si>
+  <si>
+    <t>честности</t>
+  </si>
+  <si>
+    <t>בִּי</t>
+  </si>
+  <si>
+    <t>Ты поддержал</t>
+  </si>
+  <si>
+    <t>וַתַּצִּיבֵנִי</t>
   </si>
   <si>
     <t>меня</t>
-  </si>
-  <si>
-    <t>וַאֲשֶׁר</t>
-  </si>
-  <si>
-    <t>и тот, кто</t>
-  </si>
-  <si>
-    <t>שָׁכַב</t>
-  </si>
-  <si>
-    <t>лежит</t>
-  </si>
-  <si>
-    <t>לֹא־יוֹסִיף</t>
-  </si>
-  <si>
-    <t>не встанет</t>
-  </si>
-  <si>
-    <t>לָקוּם</t>
-  </si>
-  <si>
-    <t>больше</t>
-  </si>
-  <si>
-    <t>י</t>
-  </si>
-  <si>
-    <t>גַּם</t>
-  </si>
-  <si>
-    <t>даже</t>
-  </si>
-  <si>
-    <t>אִישׁ</t>
-  </si>
-  <si>
-    <t>человек</t>
-  </si>
-  <si>
-    <t>שְׁלוֹמִי</t>
-  </si>
-  <si>
-    <t>мира моего</t>
-  </si>
-  <si>
-    <t>אֲשֶׁר־בָּטַחְתִּי</t>
-  </si>
-  <si>
-    <t>которому доверял</t>
-  </si>
-  <si>
-    <t>בּוֹ</t>
-  </si>
-  <si>
-    <t>אֹכֵל</t>
-  </si>
-  <si>
-    <t>ел</t>
-  </si>
-  <si>
-    <t>לַחְמִי</t>
-  </si>
-  <si>
-    <t>хлеб мой</t>
-  </si>
-  <si>
-    <t>הִגְדִּיל</t>
-  </si>
-  <si>
-    <t>поднял</t>
-  </si>
-  <si>
-    <t>на меня</t>
-  </si>
-  <si>
-    <t>עָקֵב</t>
-  </si>
-  <si>
-    <t>пяту</t>
-  </si>
-  <si>
-    <t>יא</t>
-  </si>
-  <si>
-    <t>וְאַתָּה</t>
-  </si>
-  <si>
-    <t>а Ты</t>
-  </si>
-  <si>
-    <t>וַהֲקִימֵנִי</t>
-  </si>
-  <si>
-    <t>и подними меня</t>
-  </si>
-  <si>
-    <t>וַאֲשַׁלְּמָה</t>
-  </si>
-  <si>
-    <t>и я воздам</t>
-  </si>
-  <si>
-    <t>לָהֶם</t>
-  </si>
-  <si>
-    <t>им</t>
-  </si>
-  <si>
-    <t>יב</t>
-  </si>
-  <si>
-    <t>בְּזֹאת</t>
-  </si>
-  <si>
-    <t>по этому</t>
-  </si>
-  <si>
-    <t>יָדַעְתִּי</t>
-  </si>
-  <si>
-    <t>узнал</t>
-  </si>
-  <si>
-    <t>что</t>
-  </si>
-  <si>
-    <t>חָפַצְתָּ</t>
-  </si>
-  <si>
-    <t>благоволишь</t>
-  </si>
-  <si>
-    <t>בִי</t>
-  </si>
-  <si>
-    <t>ко мне</t>
-  </si>
-  <si>
-    <t>לֹא</t>
-  </si>
-  <si>
-    <t>не</t>
-  </si>
-  <si>
-    <t>יָרִיעַ</t>
-  </si>
-  <si>
-    <t>восторжествует</t>
-  </si>
-  <si>
-    <t>אֹיְבִי</t>
-  </si>
-  <si>
-    <t>враг мой</t>
-  </si>
-  <si>
-    <t>עָלָי</t>
-  </si>
-  <si>
-    <t>надо мною</t>
-  </si>
-  <si>
-    <t>יג</t>
-  </si>
-  <si>
-    <t>וַאֲנִי</t>
-  </si>
-  <si>
-    <t>а я</t>
-  </si>
-  <si>
-    <t>בְּתֻמִּי</t>
-  </si>
-  <si>
-    <t>в своей</t>
-  </si>
-  <si>
-    <t>תָּמַכְתָּ</t>
-  </si>
-  <si>
-    <t>честности</t>
-  </si>
-  <si>
-    <t>בִּי</t>
-  </si>
-  <si>
-    <t>Ты поддержал</t>
-  </si>
-  <si>
-    <t>וַתַּצִּיבֵנִי</t>
   </si>
   <si>
     <t>לְפָנֶיךָ</t>
@@ -644,7 +734,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -660,6 +750,16 @@
       <sz val="10.0"/>
       <color rgb="FF0D0D0D"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -682,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -696,14 +796,26 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1039,128 +1151,128 @@
       <c r="C13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="4">
         <v>3.0</v>
-      </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="7">
-        <v>4.0</v>
+      <c r="A23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C25" s="3"/>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>43</v>
+      <c r="A26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="7">
+        <v>4.0</v>
       </c>
       <c r="C26" s="3"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C27" s="3"/>
     </row>
@@ -1192,452 +1304,452 @@
       <c r="C30" s="3"/>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="7">
-        <v>5.0</v>
+      <c r="B31" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="C31" s="3"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C34" s="3"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C35" s="3"/>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>61</v>
+      <c r="A36" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="7">
+        <v>5.0</v>
       </c>
       <c r="C36" s="3"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="6" t="s">
+      <c r="A37" s="8" t="s">
         <v>63</v>
       </c>
+      <c r="B37" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="C37" s="3"/>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="6" t="s">
+      <c r="A38" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="B38" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="C38" s="3"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="8" t="s">
         <v>67</v>
       </c>
+      <c r="B39" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="C39" s="3"/>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="6" t="s">
+      <c r="A40" s="8" t="s">
         <v>69</v>
       </c>
+      <c r="B40" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="C40" s="3"/>
     </row>
     <row r="41">
-      <c r="A41" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="7">
+      <c r="A41" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="7">
         <v>6.0</v>
-      </c>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="C46" s="3"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="C47" s="10"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="C48" s="10"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="C49" s="10"/>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="C50" s="3"/>
+      <c r="A50" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="10"/>
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="C51" s="10"/>
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="C52" s="10"/>
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="C53" s="10"/>
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C54" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="C54" s="10"/>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>97</v>
+      <c r="A55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="7">
+        <v>7.0</v>
       </c>
       <c r="C55" s="3"/>
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="C56" s="10"/>
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="C57" s="10"/>
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="C58" s="10"/>
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="C59" s="10"/>
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="C60" s="10"/>
     </row>
     <row r="61">
-      <c r="A61" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="C61" s="3"/>
+      <c r="A61" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="10"/>
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="C62" s="10"/>
     </row>
     <row r="63">
       <c r="A63" s="5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="C63" s="10"/>
     </row>
     <row r="64">
       <c r="A64" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C64" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="C64" s="10"/>
     </row>
     <row r="65">
       <c r="A65" s="5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C65" s="3"/>
+        <v>118</v>
+      </c>
+      <c r="C65" s="10"/>
     </row>
     <row r="66">
       <c r="A66" s="5" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" s="3"/>
+        <v>120</v>
+      </c>
+      <c r="C66" s="10"/>
     </row>
     <row r="67">
       <c r="A67" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C67" s="3"/>
+        <v>121</v>
+      </c>
+      <c r="C67" s="10"/>
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C68" s="3"/>
+        <v>123</v>
+      </c>
+      <c r="C68" s="10"/>
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B69" s="7">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C69" s="3"/>
     </row>
     <row r="70">
       <c r="A70" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C70" s="3"/>
     </row>
     <row r="71">
       <c r="A71" s="5" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C71" s="3"/>
     </row>
     <row r="72">
       <c r="A72" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C72" s="3"/>
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C73" s="3"/>
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C74" s="3"/>
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C75" s="3"/>
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C76" s="3"/>
     </row>
     <row r="77">
-      <c r="A77" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B77" s="7">
-        <v>10.0</v>
+      <c r="A77" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="C77" s="3"/>
     </row>
     <row r="78">
       <c r="A78" s="5" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C78" s="3"/>
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C79" s="3"/>
     </row>
     <row r="80">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>138</v>
+      <c r="B80" s="7">
+        <v>9.0</v>
       </c>
       <c r="C80" s="3"/>
     </row>
@@ -1655,378 +1767,522 @@
         <v>141</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="C82" s="3"/>
     </row>
     <row r="83">
       <c r="A83" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C83" s="3"/>
     </row>
     <row r="84">
       <c r="A84" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C84" s="3"/>
     </row>
     <row r="85">
       <c r="A85" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C85" s="3"/>
     </row>
     <row r="86">
       <c r="A86" s="5" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C86" s="3"/>
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C87" s="3"/>
     </row>
     <row r="88">
-      <c r="A88" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B88" s="7">
-        <v>11.0</v>
+      <c r="A88" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="C88" s="3"/>
     </row>
     <row r="89">
       <c r="A89" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C89" s="3"/>
     </row>
     <row r="90">
-      <c r="A90" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>57</v>
+      <c r="A90" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B90" s="7">
+        <v>10.0</v>
       </c>
       <c r="C90" s="3"/>
     </row>
     <row r="91">
       <c r="A91" s="5" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="C91" s="3"/>
     </row>
     <row r="92">
       <c r="A92" s="5" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C92" s="3"/>
     </row>
     <row r="93">
       <c r="A93" s="5" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C93" s="3"/>
     </row>
     <row r="94">
       <c r="A94" s="5" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C94" s="3"/>
     </row>
     <row r="95">
-      <c r="A95" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B95" s="7">
-        <v>12.0</v>
+      <c r="A95" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="C95" s="3"/>
     </row>
     <row r="96">
       <c r="A96" s="5" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C96" s="3"/>
     </row>
     <row r="97">
       <c r="A97" s="5" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="C97" s="3"/>
     </row>
     <row r="98">
       <c r="A98" s="5" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C98" s="3"/>
     </row>
     <row r="99">
-      <c r="A99" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>167</v>
+      <c r="A99" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="C99" s="3"/>
     </row>
     <row r="100">
-      <c r="A100" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>169</v>
+      <c r="A100" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="C100" s="3"/>
     </row>
     <row r="101">
-      <c r="A101" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>65</v>
+      <c r="A101" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="C101" s="3"/>
     </row>
     <row r="102">
-      <c r="A102" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>171</v>
+      <c r="A102" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="C102" s="3"/>
     </row>
     <row r="103">
-      <c r="A103" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>173</v>
+      <c r="A103" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="C103" s="3"/>
     </row>
     <row r="104">
-      <c r="A104" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>175</v>
+      <c r="A104" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B104" s="7">
+        <v>11.0</v>
       </c>
       <c r="C104" s="3"/>
     </row>
     <row r="105">
-      <c r="A105" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>177</v>
+      <c r="A105" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="C105" s="3"/>
     </row>
     <row r="106">
-      <c r="A106" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B106" s="7">
+      <c r="A106" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B111" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B122" s="7">
         <v>13.0</v>
       </c>
-      <c r="C106" s="3"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C107" s="3"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C108" s="3"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C109" s="3"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C110" s="3"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C111" s="3"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C112" s="3"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C113" s="3"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B114" s="7">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B130" s="7">
         <v>14.0</v>
       </c>
-      <c r="C114" s="3"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C115" s="3"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C116" s="3"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C117" s="3"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C118" s="3"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C119" s="3"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C120" s="3"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C121" s="3"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C122" s="3"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C123" s="3"/>
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C139" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
